--- a/hourly datasets/cap_gen_year17final.xlsx
+++ b/hourly datasets/cap_gen_year17final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1152330433441712</v>
+        <v>0.1062659480842234</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0027625628383213</v>
+        <v>0.002353542544731945</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002841192613958544</v>
+        <v>0.0007249597814497836</v>
       </c>
       <c r="D3" t="n">
-        <v>1.549614916454221</v>
+        <v>3.401411429781534</v>
       </c>
       <c r="E3" t="n">
-        <v>0.169523815160571</v>
+        <v>0.01146848643362273</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.002806179718569636</v>
+        <v>0.000932641161065022</v>
       </c>
       <c r="G3" t="n">
-        <v>0.008331305395212235</v>
+        <v>0.003774443928398867</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1179956061824925</v>
+        <v>0.1086194906289554</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.004693239240472599</v>
+        <v>0.01551897117455473</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003836462071306208</v>
+        <v>0.001390619828720225</v>
       </c>
       <c r="D4" t="n">
-        <v>2.12227753466004</v>
+        <v>7.916538252138063</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1345692084527107</v>
+        <v>0.003654032766058942</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.002826214283576317</v>
+        <v>0.0127933958623236</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01221269276452152</v>
+        <v>0.01824454648678586</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1199262825846438</v>
+        <v>0.1217849192587782</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.007110530942675311</v>
+        <v>0.0237162710381657</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00451367732112759</v>
+        <v>0.003080954633204196</v>
       </c>
       <c r="D5" t="n">
-        <v>2.744772350702355</v>
+        <v>8.924855489714673</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1304169782567961</v>
+        <v>0.07990755956350835</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.001736269612097057</v>
+        <v>0.01767767470357442</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01595733149744768</v>
+        <v>0.02975486737275699</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1223435742868466</v>
+        <v>0.1299822191223892</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.003067138725188779</v>
+        <v>0.01210807925980701</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002579264323484673</v>
+        <v>0.002448616276785519</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6830922477975361</v>
+        <v>4.003078275249077</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06098573539081478</v>
+        <v>0.008493214677871069</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.001988214318676445</v>
+        <v>0.007308865147837591</v>
       </c>
       <c r="G6" t="n">
-        <v>0.008122491769054002</v>
+        <v>0.01690729337177643</v>
       </c>
       <c r="H6" t="n">
-        <v>0.11830018206936</v>
+        <v>0.1183740273440305</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.0006660555167921421</v>
+        <v>0.01210602768469882</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002549990890337725</v>
+        <v>0.002639353696956034</v>
       </c>
       <c r="D7" t="n">
-        <v>0.201277820824224</v>
+        <v>2.540831676764028</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03575771674021473</v>
+        <v>0.0004651155619674327</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.005664019527257354</v>
+        <v>0.00693297370969636</v>
       </c>
       <c r="G7" t="n">
-        <v>0.004331908493673068</v>
+        <v>0.01727908165970128</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1145669878273791</v>
+        <v>0.1183719757689223</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002150766962389489</v>
+        <v>0.01340306195374568</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00305187899445711</v>
+        <v>0.003356760690397372</v>
       </c>
       <c r="D8" t="n">
-        <v>0.295831200386415</v>
+        <v>3.921867453231823</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04831348033006089</v>
+        <v>0.05956448983900994</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.003830921389884712</v>
+        <v>0.006823911897315884</v>
       </c>
       <c r="G8" t="n">
-        <v>0.008132455314663693</v>
+        <v>0.01998221201017548</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1173838103065607</v>
+        <v>0.1196690100379691</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.002511685236319255</v>
+        <v>0.01755732835670036</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00218221565562326</v>
+        <v>0.006348964754802574</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6111208910399647</v>
+        <v>5.662724182121321</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01611645808151842</v>
+        <v>0.05818078646150379</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001765444075586832</v>
+        <v>0.005113548573190635</v>
       </c>
       <c r="G9" t="n">
-        <v>0.006788814548225343</v>
+        <v>0.03000110814021008</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1177447285804905</v>
+        <v>0.1238232764409238</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1152330433441712</v>
+        <v>-0.1062659480842234</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001737066384613388</v>
+        <v>0.0005424669899068639</v>
       </c>
       <c r="D10" t="n">
-        <v>-108.6214945534969</v>
+        <v>-225.1844759037409</v>
       </c>
       <c r="E10" t="n">
-        <v>1.100143312200192e-07</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.118637694084707</v>
+        <v>-0.1073291684002668</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1118283926036356</v>
+        <v>-0.1052027277681801</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05232113213562669</v>
+        <v>-0.04715245535575163</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001839391624292428</v>
+        <v>0.0005847710949516904</v>
       </c>
       <c r="D11" t="n">
-        <v>-43.52645670048192</v>
+        <v>-91.89482276972018</v>
       </c>
       <c r="E11" t="n">
-        <v>0.006912102304274591</v>
+        <v>4.216738132124123e-147</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05592634053019947</v>
+        <v>-0.04829859053817288</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04871592374105393</v>
+        <v>-0.04600632017333038</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06291191120854456</v>
+        <v>0.05911349272847181</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03911895090953928</v>
+        <v>-0.03728263385311863</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001799205041771875</v>
+        <v>0.0005679261421352681</v>
       </c>
       <c r="D12" t="n">
-        <v>-34.04781831837441</v>
+        <v>-75.67148455398188</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02197118395606144</v>
+        <v>2.583513092750158e-127</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04264539352968327</v>
+        <v>-0.0383957534195764</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03559250828939532</v>
+        <v>-0.03616951428666085</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07611409243463196</v>
+        <v>0.06898331423110482</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03477985303905418</v>
+        <v>-0.03194050580889547</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00178283006916856</v>
+        <v>0.0005615585538145604</v>
       </c>
       <c r="D13" t="n">
-        <v>-30.39462765518837</v>
+        <v>-64.71047806309645</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01151392756653355</v>
+        <v>1.098501194656275e-99</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03827420087712239</v>
+        <v>-0.03304114507831326</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.031285505200986</v>
+        <v>-0.03083986653947768</v>
       </c>
       <c r="H13" t="n">
-        <v>0.08045319030511705</v>
+        <v>0.07432544227532797</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03195075411449799</v>
+        <v>-0.02714634814911521</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001754352079803115</v>
+        <v>0.0005485467363789416</v>
       </c>
       <c r="D14" t="n">
-        <v>-28.59762019854335</v>
+        <v>-58.58160996414945</v>
       </c>
       <c r="E14" t="n">
-        <v>0.008695881568486765</v>
+        <v>1.113377849169694e-56</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03538928501937572</v>
+        <v>-0.02822148463471231</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02851222320962029</v>
+        <v>-0.02607121166351811</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08328228922967325</v>
+        <v>0.07911959993510824</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02808901905246277</v>
+        <v>-0.0238260743944529</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001742339059016311</v>
+        <v>0.0005433205134184146</v>
       </c>
       <c r="D15" t="n">
-        <v>-25.06055748206212</v>
+        <v>-51.48557711962901</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01833189199784595</v>
+        <v>4.807417133721717e-33</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.03150400443608581</v>
+        <v>-0.02489096760964443</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02467403366883975</v>
+        <v>-0.02276118117926137</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08714402429170846</v>
+        <v>0.08243987368977054</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02637427696647129</v>
+        <v>-0.0226544908008753</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001735312927793686</v>
+        <v>0.0005413481824493235</v>
       </c>
       <c r="D16" t="n">
-        <v>-23.69167844025339</v>
+        <v>-49.14380947023087</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03611969450472</v>
+        <v>9.184415722130954e-12</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02977549133681872</v>
+        <v>-0.0237155183621775</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02297306259612386</v>
+        <v>-0.02159346323957312</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08885876637769996</v>
+        <v>0.08361145728334815</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02402783494890013</v>
+        <v>-0.02058095543646835</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001753694641600758</v>
+        <v>0.0005436941324481073</v>
       </c>
       <c r="D17" t="n">
-        <v>-21.92025975645808</v>
+        <v>-45.26723661290825</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04061936296525314</v>
+        <v>0.0007138671740878653</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02746507726469971</v>
+        <v>-0.02164658090522065</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.02059059263310057</v>
+        <v>-0.01951532996771605</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0912052083952711</v>
+        <v>0.08568499264775509</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02141171954966377</v>
+        <v>-0.01872039579824159</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001771175185122041</v>
+        <v>0.0005488260628087845</v>
       </c>
       <c r="D18" t="n">
-        <v>-17.91929927492053</v>
+        <v>-39.43301199692144</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02607322179252671</v>
+        <v>1.43470515300722e-17</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02488322390902058</v>
+        <v>-0.01979607973422014</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01794021519030697</v>
+        <v>-0.01764471186226304</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09382132379450747</v>
+        <v>0.08754555228598186</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01724847887989063</v>
+        <v>-0.01513411775007059</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001768321982055996</v>
+        <v>0.0005471785277015311</v>
       </c>
       <c r="D19" t="n">
-        <v>-14.36542452233041</v>
+        <v>-32.13117341373442</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04605254743280802</v>
+        <v>4.734724551759598e-07</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.02071439107354853</v>
+        <v>-0.01620657258284563</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01378256668623273</v>
+        <v>-0.01406166291729555</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09798456446428061</v>
+        <v>0.09113183033415286</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01395112668655786</v>
+        <v>-0.01193545640062883</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001775755308820752</v>
+        <v>0.0005580973809477267</v>
       </c>
       <c r="D20" t="n">
-        <v>-10.32404860882451</v>
+        <v>-23.15374294766456</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03223482202874139</v>
+        <v>0.000137991406657008</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01743160808962156</v>
+        <v>-0.01302931189854052</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01047064528349414</v>
+        <v>-0.01084160090271713</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1012819166576134</v>
+        <v>0.09433049168359461</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01103230864032502</v>
+        <v>-0.009207007581023979</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001782104013039535</v>
+        <v>0.0005684379887194317</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.984110196103265</v>
+        <v>-18.13655578945873</v>
       </c>
       <c r="E21" t="n">
-        <v>0.06191317950177928</v>
+        <v>0.08992082778524013</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01452523337115694</v>
+        <v>-0.01032113043782094</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.007539383909493114</v>
+        <v>-0.008092884724227012</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1042007347038462</v>
+        <v>0.09705894050319946</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.007809116358614919</v>
+        <v>-0.006422585835077638</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001792793847525138</v>
+        <v>0.0005674470431213879</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.205322757865784</v>
+        <v>-11.41648966504769</v>
       </c>
       <c r="E22" t="n">
-        <v>0.114622793352661</v>
+        <v>0.05022836113010615</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01132299343726095</v>
+        <v>-0.007534766535506167</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.004295239279968882</v>
+        <v>-0.005310405134649107</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1074239269855563</v>
+        <v>0.09984336224914581</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.005671452284566633</v>
+        <v>-0.004742375664289536</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001827245492468512</v>
+        <v>0.0005777206480378481</v>
       </c>
       <c r="D23" t="n">
-        <v>-2.555745255720072</v>
+        <v>-8.510670225173843</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0811685439782622</v>
+        <v>0.1174109724983757</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.009252854501586808</v>
+        <v>-0.005874692339873002</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.002090050067546459</v>
+        <v>-0.003610058988706069</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1095615910596046</v>
+        <v>0.1015235724199339</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.00356696665973527</v>
+        <v>-0.003446680604358203</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001823616642437397</v>
+        <v>0.0005676707874630037</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.848907978657376</v>
+        <v>-6.219936886009107</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1057145938649035</v>
+        <v>0.1089460705801795</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.00714125570154213</v>
+        <v>-0.004559299798456018</v>
       </c>
       <c r="G24" t="n">
-        <v>7.3223820715899e-06</v>
+        <v>-0.002334061410260388</v>
       </c>
       <c r="H24" t="n">
-        <v>0.111666076684436</v>
+        <v>0.1028192674798653</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.003361249476605251</v>
+        <v>-0.002719240918236039</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001826400377905151</v>
+        <v>0.0005524611953109567</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.330767105585644</v>
+        <v>-5.39113066075245</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1530416218204046</v>
+        <v>0.2293298616602996</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.00694099481193996</v>
+        <v>-0.003802049681633672</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0002184958587294578</v>
+        <v>-0.001636432154838407</v>
       </c>
       <c r="H25" t="n">
-        <v>0.111871793867566</v>
+        <v>0.1035467071659874</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.003638393024858023</v>
+        <v>0.01915803702108339</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0006642822571801673</v>
+        <v>0.002494260875470018</v>
       </c>
       <c r="D26" t="n">
-        <v>1.904510230196544</v>
+        <v>17.40871393610974</v>
       </c>
       <c r="E26" t="n">
-        <v>0.007653364229836312</v>
+        <v>0.008179815621105877</v>
       </c>
       <c r="F26" t="n">
-        <v>0.002336401583929025</v>
+        <v>0.01426935967355216</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00494038446578702</v>
+        <v>0.02404671436861464</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1188714363690293</v>
+        <v>0.1254239851053068</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year17final.xlsx
+++ b/hourly datasets/cap_gen_year17final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1062659480842234</v>
+        <v>0.1076669105487127</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002353542544731945</v>
+        <v>0.0006358603369309272</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007249597814497836</v>
+        <v>0.0006508929303047995</v>
       </c>
       <c r="D3" t="n">
-        <v>3.401411429781534</v>
+        <v>2.026663404763634</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01146848643362273</v>
+        <v>0.003416824424458394</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000932641161065022</v>
+        <v>-0.0006398704703790844</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003774443928398867</v>
+        <v>0.001911591144240939</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1086194906289554</v>
+        <v>0.1083027708856437</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01551897117455473</v>
+        <v>0.007273126369753898</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001390619828720225</v>
+        <v>0.001032013135542892</v>
       </c>
       <c r="D4" t="n">
-        <v>7.916538252138063</v>
+        <v>5.561798329238434</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003654032766058942</v>
+        <v>0.1315683548354295</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0127933958623236</v>
+        <v>0.005250411301881946</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01824454648678586</v>
+        <v>0.009295841437625848</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1217849192587782</v>
+        <v>0.1149400369184666</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0237162710381657</v>
+        <v>0.01347131593169357</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003080954633204196</v>
+        <v>0.001844240308279563</v>
       </c>
       <c r="D5" t="n">
-        <v>8.924855489714673</v>
+        <v>9.741293490904713</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07990755956350835</v>
+        <v>0.03036121905973212</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01767767470357442</v>
+        <v>0.009856660341147207</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02975486737275699</v>
+        <v>0.01708597152223994</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1299822191223892</v>
+        <v>0.1211382264804063</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01210807925980701</v>
+        <v>0.001499573317119508</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002448616276785519</v>
+        <v>0.002900369627515728</v>
       </c>
       <c r="D6" t="n">
-        <v>4.003078275249077</v>
+        <v>2.671687682800533</v>
       </c>
       <c r="E6" t="n">
-        <v>0.008493214677871069</v>
+        <v>0.07631480941677522</v>
       </c>
       <c r="F6" t="n">
-        <v>0.007308865147837591</v>
+        <v>-0.004185063694982776</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01690729337177643</v>
+        <v>0.007184210329221793</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1183740273440305</v>
+        <v>0.1091664838658322</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01210602768469882</v>
+        <v>-0.01327378278739561</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002639353696956034</v>
+        <v>0.005886952174079303</v>
       </c>
       <c r="D7" t="n">
-        <v>2.540831676764028</v>
+        <v>-0.3811911536262783</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0004651155619674327</v>
+        <v>0.09385111129338983</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00693297370969636</v>
+        <v>-0.02481203256336464</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01727908165970128</v>
+        <v>-0.001735533011426574</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1183719757689223</v>
+        <v>0.09439312776131713</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01340306195374568</v>
+        <v>-0.005512545323058332</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003356760690397372</v>
+        <v>0.005085688087906251</v>
       </c>
       <c r="D8" t="n">
-        <v>3.921867453231823</v>
+        <v>1.5743528341432</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05956448983900994</v>
+        <v>0.1103486427404625</v>
       </c>
       <c r="F8" t="n">
-        <v>0.006823911897315884</v>
+        <v>-0.01548034482414971</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01998221201017548</v>
+        <v>0.004455254178033047</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1196690100379691</v>
+        <v>0.1021543652256544</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01755732835670036</v>
+        <v>0.01030801864662718</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006348964754802574</v>
+        <v>0.006756507965565677</v>
       </c>
       <c r="D9" t="n">
-        <v>5.662724182121321</v>
+        <v>4.413118179701969</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05818078646150379</v>
+        <v>0.1036468974547733</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005113548573190635</v>
+        <v>-0.002934535002560482</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03000110814021008</v>
+        <v>0.02355057229581484</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1238232764409238</v>
+        <v>0.1179749291953399</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1062659480842234</v>
+        <v>-0.1076669105487127</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005424669899068639</v>
+        <v>0.0005041667081974899</v>
       </c>
       <c r="D10" t="n">
-        <v>-225.1844759037409</v>
+        <v>-232.9813242849286</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1073291684002668</v>
+        <v>-0.1086550623417167</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1052027277681801</v>
+        <v>-0.1066787587557088</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04715245535575163</v>
+        <v>-0.04711460020915418</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005847710949516904</v>
+        <v>0.0005474699168312511</v>
       </c>
       <c r="D11" t="n">
-        <v>-91.89482276972018</v>
+        <v>-93.4500268495526</v>
       </c>
       <c r="E11" t="n">
-        <v>4.216738132124123e-147</v>
+        <v>1.479065079704515e-143</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04829859053817288</v>
+        <v>-0.04818762501814212</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04600632017333038</v>
+        <v>-0.04604157540016623</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05911349272847181</v>
+        <v>0.06055231033955855</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03728263385311863</v>
+        <v>-0.03752270420007601</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005679261421352681</v>
+        <v>0.0005322984806743513</v>
       </c>
       <c r="D12" t="n">
-        <v>-75.67148455398188</v>
+        <v>-77.65715191916263</v>
       </c>
       <c r="E12" t="n">
-        <v>2.583513092750158e-127</v>
+        <v>2.027231817199697e-71</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0383957534195764</v>
+        <v>-0.03856599344934924</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03616951428666085</v>
+        <v>-0.03647941495080277</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06898331423110482</v>
+        <v>0.07014420634863672</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03194050580889547</v>
+        <v>-0.03214667478320545</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005615585538145604</v>
+        <v>0.0005262038293880748</v>
       </c>
       <c r="D13" t="n">
-        <v>-64.71047806309645</v>
+        <v>-67.13641677309714</v>
       </c>
       <c r="E13" t="n">
-        <v>1.098501194656275e-99</v>
+        <v>2.329980142957018e-72</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03304114507831326</v>
+        <v>-0.03317801869537567</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03083986653947768</v>
+        <v>-0.03111533087103524</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07432544227532797</v>
+        <v>0.07552023576550729</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02714634814911521</v>
+        <v>-0.02679790766656106</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0005485467363789416</v>
+        <v>0.0005098546084705264</v>
       </c>
       <c r="D14" t="n">
-        <v>-58.58160996414945</v>
+        <v>-59.38750724509705</v>
       </c>
       <c r="E14" t="n">
-        <v>1.113377849169694e-56</v>
+        <v>9.062847073492935e-47</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02822148463471231</v>
+        <v>-0.02779720758165019</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02607121166351811</v>
+        <v>-0.02579860775147193</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07911959993510824</v>
+        <v>0.08086900288215168</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0238260743944529</v>
+        <v>-0.02314127962424935</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005433205134184146</v>
+        <v>0.0005064071051667174</v>
       </c>
       <c r="D15" t="n">
-        <v>-51.48557711962901</v>
+        <v>-51.58722091477215</v>
       </c>
       <c r="E15" t="n">
-        <v>4.807417133721717e-33</v>
+        <v>5.809476633814486e-41</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02489096760964443</v>
+        <v>-0.02413382252819556</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02276118117926137</v>
+        <v>-0.02214873672030316</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08243987368977054</v>
+        <v>0.08452563092446339</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0226544908008753</v>
+        <v>-0.02168338192483097</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0005413481824493235</v>
+        <v>0.0004996839851445164</v>
       </c>
       <c r="D16" t="n">
-        <v>-49.14380947023087</v>
+        <v>-48.82131860282743</v>
       </c>
       <c r="E16" t="n">
-        <v>9.184415722130954e-12</v>
+        <v>3.113175257073433e-20</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0237155183621775</v>
+        <v>-0.02266274771465321</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02159346323957312</v>
+        <v>-0.02070401613500872</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08361145728334815</v>
+        <v>0.08598352862388177</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02058095543646835</v>
+        <v>-0.01957383732632835</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0005436941324481073</v>
+        <v>0.0005066495367531824</v>
       </c>
       <c r="D17" t="n">
-        <v>-45.26723661290825</v>
+        <v>-43.66489231052718</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0007138671740878653</v>
+        <v>3.324635813073693e-23</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02164658090522065</v>
+        <v>-0.02056685539693056</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01951532996771605</v>
+        <v>-0.01858081925572614</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08568499264775509</v>
+        <v>0.08809307322238438</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01872039579824159</v>
+        <v>-0.01837802334831732</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0005488260628087845</v>
+        <v>0.000512858793434487</v>
       </c>
       <c r="D18" t="n">
-        <v>-39.43301199692144</v>
+        <v>-39.29846304760056</v>
       </c>
       <c r="E18" t="n">
-        <v>1.43470515300722e-17</v>
+        <v>2.389120636300119e-37</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01979607973422014</v>
+        <v>-0.01938321137918109</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01764471186226304</v>
+        <v>-0.01737283531745356</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08754555228598186</v>
+        <v>0.08928888720039541</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01513411775007059</v>
+        <v>-0.01473767756901294</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0005471785277015311</v>
+        <v>0.0005075378479124203</v>
       </c>
       <c r="D19" t="n">
-        <v>-32.13117341373442</v>
+        <v>-32.1816049497836</v>
       </c>
       <c r="E19" t="n">
-        <v>4.734724551759598e-07</v>
+        <v>1.095572764931141e-18</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01620657258284563</v>
+        <v>-0.01573243669063219</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01406166291729555</v>
+        <v>-0.01374291844739369</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09113183033415286</v>
+        <v>0.09292923297969979</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01193545640062883</v>
+        <v>-0.01114549404647799</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0005580973809477267</v>
+        <v>0.0005167727518567055</v>
       </c>
       <c r="D20" t="n">
-        <v>-23.15374294766456</v>
+        <v>-22.75924163961079</v>
       </c>
       <c r="E20" t="n">
-        <v>0.000137991406657008</v>
+        <v>0.001322126213760871</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01302931189854052</v>
+        <v>-0.0121583533047971</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01084160090271713</v>
+        <v>-0.01013263478815887</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09433049168359461</v>
+        <v>0.09652141650223474</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.009207007581023979</v>
+        <v>-0.008662460231982489</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0005684379887194317</v>
+        <v>0.0005214322363493788</v>
       </c>
       <c r="D21" t="n">
-        <v>-18.13655578945873</v>
+        <v>-17.98176825375335</v>
       </c>
       <c r="E21" t="n">
-        <v>0.08992082778524013</v>
+        <v>0.0006668245702014104</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01032113043782094</v>
+        <v>-0.009684451926138609</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.008092884724227012</v>
+        <v>-0.007640468537826369</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09705894050319946</v>
+        <v>0.09900445031673025</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.006422585835077638</v>
+        <v>-0.005606965448858721</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0005674470431213879</v>
+        <v>0.0005171756986432621</v>
       </c>
       <c r="D22" t="n">
-        <v>-11.41648966504769</v>
+        <v>-10.41042244345797</v>
       </c>
       <c r="E22" t="n">
-        <v>0.05022836113010615</v>
+        <v>0.001066907935336549</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.007534766535506167</v>
+        <v>-0.006620614453117231</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.005310405134649107</v>
+        <v>-0.004593316444600212</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09984336224914581</v>
+        <v>0.102059945099854</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.004742375664289536</v>
+        <v>-0.004263728774518067</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0005777206480378481</v>
+        <v>0.0005265548950835991</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.510670225173843</v>
+        <v>-7.301468055171538</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1174109724983757</v>
+        <v>0.001662730822101878</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.005874692339873002</v>
+        <v>-0.005295760729111907</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.003610058988706069</v>
+        <v>-0.003231696819924228</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1015235724199339</v>
+        <v>0.1034031817741947</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.003446680604358203</v>
+        <v>-0.002954017928980067</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0005676707874630037</v>
+        <v>0.0005178464981462635</v>
       </c>
       <c r="D24" t="n">
-        <v>-6.219936886009107</v>
+        <v>-5.05388293405384</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1089460705801795</v>
+        <v>0.07143296799965339</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.004559299798456018</v>
+        <v>-0.003968981667876727</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.002334061410260388</v>
+        <v>-0.001939054190083407</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1028192674798653</v>
+        <v>0.1047128926197327</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.002719240918236039</v>
+        <v>-0.001984515066168962</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0005524611953109567</v>
+        <v>0.0005081517116647655</v>
       </c>
       <c r="D25" t="n">
-        <v>-5.39113066075245</v>
+        <v>-4.192029539723904</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2293298616602996</v>
+        <v>0.0998155235390554</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.003802049681633672</v>
+        <v>-0.002980477311587084</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.001636432154838407</v>
+        <v>-0.0009885528207508394</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1035467071659874</v>
+        <v>0.1056823954825438</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01915803702108339</v>
+        <v>-0.00177715190470935</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002494260875470018</v>
+        <v>0.003410283268834391</v>
       </c>
       <c r="D26" t="n">
-        <v>17.40871393610974</v>
+        <v>7.582143033322064</v>
       </c>
       <c r="E26" t="n">
-        <v>0.008179815621105877</v>
+        <v>0.06531798919427408</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01426935967355216</v>
+        <v>-0.008461204664585961</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02404671436861464</v>
+        <v>0.004906900855167261</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1254239851053068</v>
+        <v>0.1058897586440034</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year17final.xlsx
+++ b/hourly datasets/cap_gen_year17final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,581 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1076669105487127</v>
+        <v>0.1375302291596429</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0006358603369309272</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0006508929303047995</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.026663404763634</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.003416824424458394</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.0006398704703790844</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.001911591144240939</v>
-      </c>
+        <v>0.127140233684486</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.1083027708856437</v>
+        <v>0.2646704628441289</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007273126369753898</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.001032013135542892</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.561798329238434</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1315683548354295</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.005250411301881946</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.009295841437625848</v>
-      </c>
+        <v>0.1397143398028587</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.1149400369184666</v>
+        <v>0.2772445689625016</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01347131593169357</v>
+        <v>0.04054564365706263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001844240308279563</v>
+        <v>0.004200089556690857</v>
       </c>
       <c r="D5" t="n">
-        <v>9.741293490904713</v>
+        <v>7.996492833145425</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03036121905973212</v>
+        <v>0.04878753132426537</v>
       </c>
       <c r="F5" t="n">
-        <v>0.009856660341147207</v>
+        <v>0.03230793351952842</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01708597152223994</v>
+        <v>0.04878335379459721</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1211382264804063</v>
+        <v>0.1780758728167055</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001499573317119508</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.002900369627515728</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.671687682800533</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.07631480941677522</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.004185063694982776</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.007184210329221793</v>
-      </c>
+        <v>0.02813765158505478</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.1091664838658322</v>
+        <v>0.1656678807446976</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.01327378278739561</v>
+        <v>0.009596111227887073</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005886952174079303</v>
+        <v>0.0009986590935288911</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3811911536262783</v>
+        <v>2.292365018139422</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09385111129338983</v>
+        <v>0.002469817652174229</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.02481203256336464</v>
+        <v>0.007632689068534239</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.001735533011426574</v>
+        <v>0.01155953338724009</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09439312776131713</v>
+        <v>0.1471263403875299</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.005512545323058332</v>
+        <v>0.008016443401375037</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005085688087906251</v>
+        <v>0.0009608846842212742</v>
       </c>
       <c r="D8" t="n">
-        <v>1.5743528341432</v>
+        <v>1.967314710988934</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1103486427404625</v>
+        <v>0.00194848631552533</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01548034482414971</v>
+        <v>0.00612974910180171</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004455254178033047</v>
+        <v>0.009903137700948495</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1021543652256544</v>
+        <v>0.1455466725610179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01030801864662718</v>
+        <v>0.00252130923710965</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006756507965565677</v>
+        <v>0.0009460531037122428</v>
       </c>
       <c r="D9" t="n">
-        <v>4.413118179701969</v>
+        <v>1.279683249111254</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1036468974547733</v>
+        <v>0.001913658800556674</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.002934535002560482</v>
+        <v>0.0006618513984464409</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02355057229581484</v>
+        <v>0.004380767075772879</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1179749291953399</v>
+        <v>0.1400515383967525</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1076669105487127</v>
+        <v>0.00250832612811631</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005041667081974899</v>
+        <v>0.001066650516246617</v>
       </c>
       <c r="D10" t="n">
-        <v>-232.9813242849286</v>
+        <v>1.360922599339205</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.0012437073382277</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1086550623417167</v>
+        <v>0.0004125720981991956</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1066787587557088</v>
+        <v>0.004604080158033451</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1400385552877592</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04711460020915418</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005474699168312511</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-93.4500268495526</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.479065079704515e-143</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.04818762501814212</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.04604157540016623</v>
-      </c>
+        <v>0.02916613140044245</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.06055231033955855</v>
+        <v>0.1666963605600853</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03752270420007601</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0005322984806743513</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-77.65715191916263</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.027231817199697e-71</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.03856599344934924</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.03647941495080277</v>
-      </c>
+        <v>0.05286084727888733</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.07014420634863672</v>
+        <v>0.1903910764385302</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03214667478320545</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0005262038293880748</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-67.13641677309714</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.329980142957018e-72</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.03317801869537567</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.03111533087103524</v>
-      </c>
+        <v>0.06734082038218643</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.07552023576550729</v>
+        <v>0.2048710495418293</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02679790766656106</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0005098546084705264</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-59.38750724509705</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9.062847073492935e-47</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.02779720758165019</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.02579860775147193</v>
-      </c>
+        <v>0.07880223571596123</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.08086900288215168</v>
+        <v>0.2163324648756041</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02314127962424935</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0005064071051667174</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-51.58722091477215</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5.809476633814486e-41</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.02413382252819556</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.02214873672030316</v>
-      </c>
+        <v>0.08406342180212137</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.08452563092446339</v>
+        <v>0.2215936509617642</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02168338192483097</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0004996839851445164</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-48.82131860282743</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3.113175257073433e-20</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.02266274771465321</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.02070401613500872</v>
-      </c>
+        <v>0.08898034934008618</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.08598352862388177</v>
+        <v>0.2265105784997291</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01957383732632835</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0005066495367531824</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-43.66489231052718</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3.324635813073693e-23</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.02056685539693056</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.01858081925572614</v>
-      </c>
+        <v>0.0930255472001713</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.08809307322238438</v>
+        <v>0.2305557763598142</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01837802334831732</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.000512858793434487</v>
+        <v>-0.1375302291596429</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="D18" t="n">
-        <v>-39.29846304760056</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2.389120636300119e-37</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.01938321137918109</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.01737283531745356</v>
-      </c>
+        <v>-5029703483761.204</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0.08928888720039541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01473767756901294</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0005075378479124203</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-32.1816049497836</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.095572764931141e-18</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.01573243669063219</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.01374291844739369</v>
-      </c>
+        <v>0.09338346517610915</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.09292923297969979</v>
+        <v>0.230913694335752</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01114549404647799</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0005167727518567055</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-22.75924163961079</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.001322126213760871</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.0121583533047971</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.01013263478815887</v>
-      </c>
+        <v>0.09637293518903731</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.09652141650223474</v>
+        <v>0.2339031643486802</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.008662460231982489</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0005214322363493788</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-17.98176825375335</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.0006668245702014104</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.009684451926138609</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0.007640468537826369</v>
-      </c>
+        <v>0.1006794353581313</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.09900445031673025</v>
+        <v>0.2382096645177742</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.005606965448858721</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0005171756986432621</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-10.41042244345797</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.001066907935336549</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.006620614453117231</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.004593316444600212</v>
-      </c>
+        <v>0.1047668616387906</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.102059945099854</v>
+        <v>0.2422970907984335</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.004263728774518067</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0005265548950835991</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-7.301468055171538</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.001662730822101878</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-0.005295760729111907</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-0.003231696819924228</v>
-      </c>
+        <v>0.1087488460344755</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.1034031817741947</v>
+        <v>0.2462790751941183</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.002954017928980067</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.0005178464981462635</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-5.05388293405384</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.07143296799965339</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.003968981667876727</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-0.001939054190083407</v>
-      </c>
+        <v>0.1130998359229262</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0.1047128926197327</v>
+        <v>0.250630065082569</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.001984515066168962</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.0005081517116647655</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-4.192029539723904</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.0998155235390554</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-0.002980477311587084</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-0.0009885528207508394</v>
-      </c>
+        <v>0.1148840331002455</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>0.1056823954825438</v>
+        <v>0.2524142622598884</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1174281402480654</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>767208927868.7803</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>0.2549583694077083</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1218724315160411</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>659980954883.652</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>0.259402660675684</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1264001931104778</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.006731241077504117</v>
+      </c>
+      <c r="D28" t="n">
+        <v>27.1194930353422</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.08327673595368205</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1131333660289074</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1396670201920478</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2639304222701206</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>-0.00177715190470935</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.003410283268834391</v>
-      </c>
-      <c r="D26" t="n">
-        <v>7.582143033322064</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.06531798919427408</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-0.008461204664585961</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.004906900855167261</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.1058897586440034</v>
+      <c r="B29" t="n">
+        <v>0.004452037883804417</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0005181632392771667</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.660061074412893</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.00307744349532584</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.003434368407722893</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.005469707359885884</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1419822670434473</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year17final.xlsx
+++ b/hourly datasets/cap_gen_year17final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1375302291596429</v>
+        <v>0.1032715332661945</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.127140233684486</v>
+        <v>0.123544959004684</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.2646704628441289</v>
+        <v>0.2268164922708785</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1397143398028587</v>
+        <v>0.1125071070265921</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -526,7 +526,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.2772445689625016</v>
+        <v>0.2157786402927865</v>
       </c>
     </row>
     <row r="5">
@@ -536,25 +536,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04054564365706263</v>
+        <v>0.04584762580201045</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004200089556690857</v>
+        <v>0.004884665086340472</v>
       </c>
       <c r="D5" t="n">
-        <v>7.996492833145425</v>
+        <v>8.074458152572564</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04878753132426537</v>
+        <v>0.05013392399081189</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03230793351952842</v>
+        <v>0.03626765548662099</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04878335379459721</v>
+        <v>0.0554275961173997</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1780758728167055</v>
+        <v>0.1491191590682049</v>
       </c>
     </row>
     <row r="6">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02813765158505478</v>
+        <v>0.03483020773375735</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -572,7 +572,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.1656678807446976</v>
+        <v>0.1381017409999518</v>
       </c>
     </row>
     <row r="7">
@@ -582,25 +582,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.009596111227887073</v>
+        <v>0.01866757594154206</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0009986590935288911</v>
+        <v>0.002098370891433816</v>
       </c>
       <c r="D7" t="n">
-        <v>2.292365018139422</v>
+        <v>2.705064845679695</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002469817652174229</v>
+        <v>0.008510740238794712</v>
       </c>
       <c r="F7" t="n">
-        <v>0.007632689068534239</v>
+        <v>0.01454797859067791</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01155953338724009</v>
+        <v>0.02278717329240586</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1471263403875299</v>
+        <v>0.1219391092077365</v>
       </c>
     </row>
     <row r="8">
@@ -610,25 +610,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.008016443401375037</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0009608846842212742</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.967314710988934</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.00194848631552533</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.00612974910180171</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.009903137700948495</v>
-      </c>
+        <v>0.01678749391398004</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>0.1455466725610179</v>
+        <v>0.1200590271801745</v>
       </c>
     </row>
     <row r="9">
@@ -638,25 +628,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00252130923710965</v>
+        <v>0.01148705543886069</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0009460531037122428</v>
+        <v>0.001817406281004231</v>
       </c>
       <c r="D9" t="n">
-        <v>1.279683249111254</v>
+        <v>2.084904913975639</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001913658800556674</v>
+        <v>0.008441666954877369</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0006618513984464409</v>
+        <v>0.007919437685998357</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004380767075772879</v>
+        <v>0.01505467319172316</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1400515383967525</v>
+        <v>0.1147585887050551</v>
       </c>
     </row>
     <row r="10">
@@ -666,25 +656,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00250832612811631</v>
+        <v>0.01155506298580298</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001066650516246617</v>
+        <v>0.002082678145171691</v>
       </c>
       <c r="D10" t="n">
-        <v>1.360922599339205</v>
+        <v>2.107974717519345</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0012437073382277</v>
+        <v>0.009045247916819056</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0004125720981991956</v>
+        <v>0.007467477304198136</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004604080158033451</v>
+        <v>0.01564264866740796</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1400385552877592</v>
+        <v>0.1148265962519974</v>
       </c>
     </row>
     <row r="11">
@@ -694,7 +684,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02916613140044245</v>
+        <v>0.02972441137369737</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -702,7 +692,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.1666963605600853</v>
+        <v>0.1329959446398918</v>
       </c>
     </row>
     <row r="12">
@@ -712,7 +702,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05286084727888733</v>
+        <v>0.05409485438562589</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -720,7 +710,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.1903910764385302</v>
+        <v>0.1573663876518203</v>
       </c>
     </row>
     <row r="13">
@@ -730,7 +720,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06734082038218643</v>
+        <v>0.06918147161944022</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -738,7 +728,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.2048710495418293</v>
+        <v>0.1724530048856347</v>
       </c>
     </row>
     <row r="14">
@@ -748,7 +738,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07880223571596123</v>
+        <v>0.08072206526740502</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -756,7 +746,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.2163324648756041</v>
+        <v>0.1839935985335995</v>
       </c>
     </row>
     <row r="15">
@@ -766,7 +756,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.08406342180212137</v>
+        <v>0.08619898135964785</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -774,7 +764,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.2215936509617642</v>
+        <v>0.1894705146258423</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +774,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08898034934008618</v>
+        <v>0.08985738308665765</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -792,7 +782,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.2265105784997291</v>
+        <v>0.1931289163528521</v>
       </c>
     </row>
     <row r="17">
@@ -802,7 +792,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0930255472001713</v>
+        <v>0.09408923803573851</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -810,7 +800,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.2305557763598142</v>
+        <v>0.197360771301933</v>
       </c>
     </row>
     <row r="18">
@@ -820,19 +810,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1375302291596429</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>-0.1032715332661945</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.008905996699974422</v>
       </c>
       <c r="D18" t="n">
-        <v>-5029703483761.204</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+        <v>-19.05966684785116</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.02685169165100391</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.120772599487219</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.08577046704517004</v>
+      </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
@@ -844,7 +838,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.09338346517610915</v>
+        <v>0.09406115305583133</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -852,7 +846,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.230913694335752</v>
+        <v>0.1973326863220258</v>
       </c>
     </row>
     <row r="20">
@@ -862,7 +856,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.09637293518903731</v>
+        <v>0.09819629145515409</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -870,7 +864,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.2339031643486802</v>
+        <v>0.2014678247213486</v>
       </c>
     </row>
     <row r="21">
@@ -880,7 +874,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1006794353581313</v>
+        <v>0.1016710335447454</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -888,7 +882,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.2382096645177742</v>
+        <v>0.2049425668109399</v>
       </c>
     </row>
     <row r="22">
@@ -898,7 +892,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1047668616387906</v>
+        <v>0.1058913419359381</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -906,7 +900,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.2422970907984335</v>
+        <v>0.2091628752021325</v>
       </c>
     </row>
     <row r="23">
@@ -916,15 +910,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1087488460344755</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+        <v>0.1096621026567973</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.007196970191805244</v>
+      </c>
+      <c r="D23" t="n">
+        <v>27.19819957207644</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.04345474295017757</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.09551341072141653</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1238107945921782</v>
+      </c>
       <c r="H23" t="n">
-        <v>0.2462790751941183</v>
+        <v>0.2129336359229918</v>
       </c>
     </row>
     <row r="24">
@@ -934,15 +938,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1130998359229262</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+        <v>0.1131890454873457</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.007069284488701446</v>
+      </c>
+      <c r="D24" t="n">
+        <v>27.99589419668919</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.03090247037235266</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.09928944041638178</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1270886505583096</v>
+      </c>
       <c r="H24" t="n">
-        <v>0.250630065082569</v>
+        <v>0.2164605787535401</v>
       </c>
     </row>
     <row r="25">
@@ -952,15 +966,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1148840331002455</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+        <v>0.1155133960877915</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.007144910753670359</v>
+      </c>
+      <c r="D25" t="n">
+        <v>29.10440059802164</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.04618075995359579</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1014584394361259</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.129568352739457</v>
+      </c>
       <c r="H25" t="n">
-        <v>0.2524142622598884</v>
+        <v>0.2187849293539859</v>
       </c>
     </row>
     <row r="26">
@@ -970,21 +994,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1174281402480654</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.1178704374144319</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.007252321536902761</v>
       </c>
       <c r="D26" t="n">
-        <v>767208927868.7803</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+        <v>29.46692268445513</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0496586813913303</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1036197730170177</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1321211018118469</v>
+      </c>
       <c r="H26" t="n">
-        <v>0.2549583694077083</v>
+        <v>0.2211419706806264</v>
       </c>
     </row>
     <row r="27">
@@ -994,21 +1022,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1218724315160411</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.1220811423598562</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.007146291459685908</v>
       </c>
       <c r="D27" t="n">
-        <v>659980954883.652</v>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+        <v>29.11740688913864</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.05567456673404157</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1080305649009582</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1361317198187539</v>
+      </c>
       <c r="H27" t="n">
-        <v>0.259402660675684</v>
+        <v>0.2253526756260506</v>
       </c>
     </row>
     <row r="28">
@@ -1018,25 +1050,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1264001931104778</v>
+        <v>0.1232720042135041</v>
       </c>
       <c r="C28" t="n">
-        <v>0.006731241077504117</v>
+        <v>0.00716153581725948</v>
       </c>
       <c r="D28" t="n">
-        <v>27.1194930353422</v>
+        <v>26.16275451701625</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08327673595368205</v>
+        <v>0.08403230770418317</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1131333660289074</v>
+        <v>0.1091963941166053</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1396670201920478</v>
+        <v>0.1373476143104025</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2639304222701206</v>
+        <v>0.2265435374796985</v>
       </c>
     </row>
     <row r="29">
@@ -1046,25 +1078,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.004452037883804417</v>
+        <v>0.01434479949641376</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0005181632392771667</v>
+        <v>0.001418444108487877</v>
       </c>
       <c r="D29" t="n">
-        <v>1.660061074412893</v>
+        <v>2.575276824397787</v>
       </c>
       <c r="E29" t="n">
-        <v>0.00307744349532584</v>
+        <v>0.00891385920699507</v>
       </c>
       <c r="F29" t="n">
-        <v>0.003434368407722893</v>
+        <v>0.01156192527061761</v>
       </c>
       <c r="G29" t="n">
-        <v>0.005469707359885884</v>
+        <v>0.01712767372220998</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1419822670434473</v>
+        <v>0.1176163327626082</v>
       </c>
     </row>
   </sheetData>
